--- a/data/zenodo_ivan/conversion/chp/CHE_convchp_coal.xlsx
+++ b/data/zenodo_ivan/conversion/chp/CHE_convchp_coal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/chp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BD9015-0D8C-694D-B1BE-0199CFC4C632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5901251D-8951-CA4E-AA12-B809C652C3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$849</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$850</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="70">
   <si>
     <t>Name:</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>constant_fxe</t>
+  </si>
+  <si>
+    <t>capacity_to_activity</t>
+  </si>
+  <si>
+    <t>GW/TWh</t>
   </si>
 </sst>
 </file>
@@ -658,11 +664,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L429"/>
+  <dimension ref="A1:L430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -834,26 +840,17 @@
       <c r="B10" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
+      <c r="C10" t="s">
+        <v>68</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
       </c>
       <c r="G10">
-        <v>353.88</v>
+        <v>1E-3</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -864,18 +861,26 @@
         <v>66</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
       </c>
       <c r="G11">
-        <v>8.3000000000000007</v>
+        <v>353.88</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
       </c>
       <c r="I11" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -885,16 +890,13 @@
         <v>66</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="G12">
-        <v>40</v>
-      </c>
-      <c r="H12" t="s">
-        <v>49</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I12" t="s">
         <v>43</v>
@@ -909,13 +911,16 @@
         <v>66</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
+      <c r="G13">
+        <v>40</v>
+      </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s">
         <v>43</v>
@@ -930,13 +935,16 @@
         <v>66</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="I14" t="s">
+        <v>43</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -948,19 +956,13 @@
         <v>66</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
-      <c r="G15">
-        <v>0.88</v>
-      </c>
-      <c r="I15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" t="s">
-        <v>51</v>
+      <c r="H15" t="s">
+        <v>42</v>
       </c>
       <c r="K15" s="2"/>
     </row>
@@ -972,52 +974,47 @@
         <v>66</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
       <c r="G16">
+        <v>0.88</v>
+      </c>
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17">
         <v>0.6</v>
       </c>
-      <c r="I16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="I17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17">
-        <v>1990</v>
-      </c>
-      <c r="G17">
-        <v>40</v>
-      </c>
-      <c r="H17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1031,7 +1028,7 @@
         <v>39</v>
       </c>
       <c r="E18">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G18">
         <v>40</v>
@@ -1046,7 +1043,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1060,7 +1057,7 @@
         <v>39</v>
       </c>
       <c r="E19">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G19">
         <v>40</v>
@@ -1075,7 +1072,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1089,7 +1086,7 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G20">
         <v>40</v>
@@ -1104,7 +1101,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1118,7 +1115,7 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G21">
         <v>40</v>
@@ -1133,7 +1130,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1147,10 +1144,10 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s">
         <v>53</v>
@@ -1162,7 +1159,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1176,7 +1173,7 @@
         <v>39</v>
       </c>
       <c r="E23">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1191,7 +1188,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1205,7 +1202,7 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1220,7 +1217,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1234,7 +1231,7 @@
         <v>39</v>
       </c>
       <c r="E25">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1249,7 +1246,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1263,7 +1260,7 @@
         <v>39</v>
       </c>
       <c r="E26">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1278,7 +1275,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1292,7 +1289,7 @@
         <v>39</v>
       </c>
       <c r="E27">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1307,7 +1304,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1321,7 +1318,7 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1336,7 +1333,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -1350,7 +1347,7 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1365,7 +1362,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1379,7 +1376,7 @@
         <v>39</v>
       </c>
       <c r="E30">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1394,7 +1391,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1408,7 +1405,7 @@
         <v>39</v>
       </c>
       <c r="E31">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1423,7 +1420,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1437,7 +1434,7 @@
         <v>39</v>
       </c>
       <c r="E32">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1466,7 +1463,7 @@
         <v>39</v>
       </c>
       <c r="E33">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1495,7 +1492,7 @@
         <v>39</v>
       </c>
       <c r="E34">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1524,7 +1521,7 @@
         <v>39</v>
       </c>
       <c r="E35">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1553,7 +1550,7 @@
         <v>39</v>
       </c>
       <c r="E36">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1582,7 +1579,7 @@
         <v>39</v>
       </c>
       <c r="E37">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1611,7 +1608,7 @@
         <v>39</v>
       </c>
       <c r="E38">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1640,7 +1637,7 @@
         <v>39</v>
       </c>
       <c r="E39">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1669,7 +1666,7 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1698,7 +1695,7 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1727,7 +1724,7 @@
         <v>39</v>
       </c>
       <c r="E42">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -1756,7 +1753,7 @@
         <v>39</v>
       </c>
       <c r="E43">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -1785,7 +1782,7 @@
         <v>39</v>
       </c>
       <c r="E44">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -1814,7 +1811,7 @@
         <v>39</v>
       </c>
       <c r="E45">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -1843,7 +1840,7 @@
         <v>39</v>
       </c>
       <c r="E46">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -1866,19 +1863,19 @@
         <v>66</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47" t="s">
         <v>39</v>
       </c>
       <c r="E47">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G47">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I47" t="s">
         <v>43</v>
@@ -1901,7 +1898,7 @@
         <v>39</v>
       </c>
       <c r="E48">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G48">
         <v>20</v>
@@ -1930,7 +1927,7 @@
         <v>39</v>
       </c>
       <c r="E49">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G49">
         <v>20</v>
@@ -1959,7 +1956,7 @@
         <v>39</v>
       </c>
       <c r="E50">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G50">
         <v>20</v>
@@ -1988,7 +1985,7 @@
         <v>39</v>
       </c>
       <c r="E51">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G51">
         <v>20</v>
@@ -2017,10 +2014,10 @@
         <v>39</v>
       </c>
       <c r="E52">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H52" t="s">
         <v>55</v>
@@ -2046,7 +2043,7 @@
         <v>39</v>
       </c>
       <c r="E53">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2075,7 +2072,7 @@
         <v>39</v>
       </c>
       <c r="E54">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2104,7 +2101,7 @@
         <v>39</v>
       </c>
       <c r="E55">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2133,7 +2130,7 @@
         <v>39</v>
       </c>
       <c r="E56">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2162,7 +2159,7 @@
         <v>39</v>
       </c>
       <c r="E57">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2191,7 +2188,7 @@
         <v>39</v>
       </c>
       <c r="E58">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2220,7 +2217,7 @@
         <v>39</v>
       </c>
       <c r="E59">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2249,7 +2246,7 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -2278,7 +2275,7 @@
         <v>39</v>
       </c>
       <c r="E61">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -2307,7 +2304,7 @@
         <v>39</v>
       </c>
       <c r="E62">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -2336,7 +2333,7 @@
         <v>39</v>
       </c>
       <c r="E63">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2365,7 +2362,7 @@
         <v>39</v>
       </c>
       <c r="E64">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -2394,7 +2391,7 @@
         <v>39</v>
       </c>
       <c r="E65">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -2423,7 +2420,7 @@
         <v>39</v>
       </c>
       <c r="E66">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -2452,7 +2449,7 @@
         <v>39</v>
       </c>
       <c r="E67">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -2481,7 +2478,7 @@
         <v>39</v>
       </c>
       <c r="E68">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -2510,7 +2507,7 @@
         <v>39</v>
       </c>
       <c r="E69">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -2539,7 +2536,7 @@
         <v>39</v>
       </c>
       <c r="E70">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2568,7 +2565,7 @@
         <v>39</v>
       </c>
       <c r="E71">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -2597,7 +2594,7 @@
         <v>39</v>
       </c>
       <c r="E72">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -2626,7 +2623,7 @@
         <v>39</v>
       </c>
       <c r="E73">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -2655,7 +2652,7 @@
         <v>39</v>
       </c>
       <c r="E74">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -2684,7 +2681,7 @@
         <v>39</v>
       </c>
       <c r="E75">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -2713,7 +2710,7 @@
         <v>39</v>
       </c>
       <c r="E76">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -2736,13 +2733,13 @@
         <v>66</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
         <v>39</v>
       </c>
       <c r="E77">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -2755,9 +2752,6 @@
       </c>
       <c r="J77" t="s">
         <v>54</v>
-      </c>
-      <c r="L77" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -2774,7 +2768,7 @@
         <v>39</v>
       </c>
       <c r="E78">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -2806,7 +2800,7 @@
         <v>39</v>
       </c>
       <c r="E79">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -2838,7 +2832,7 @@
         <v>39</v>
       </c>
       <c r="E80">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -2870,7 +2864,7 @@
         <v>39</v>
       </c>
       <c r="E81">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2902,7 +2896,7 @@
         <v>39</v>
       </c>
       <c r="E82">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2934,7 +2928,7 @@
         <v>39</v>
       </c>
       <c r="E83">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2966,7 +2960,7 @@
         <v>39</v>
       </c>
       <c r="E84">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -2998,7 +2992,7 @@
         <v>39</v>
       </c>
       <c r="E85">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -3030,7 +3024,7 @@
         <v>39</v>
       </c>
       <c r="E86">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -3062,7 +3056,7 @@
         <v>39</v>
       </c>
       <c r="E87">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -3094,7 +3088,7 @@
         <v>39</v>
       </c>
       <c r="E88">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3126,7 +3120,7 @@
         <v>39</v>
       </c>
       <c r="E89">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -3158,7 +3152,7 @@
         <v>39</v>
       </c>
       <c r="E90">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3190,7 +3184,7 @@
         <v>39</v>
       </c>
       <c r="E91">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -3222,7 +3216,7 @@
         <v>39</v>
       </c>
       <c r="E92">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3254,7 +3248,7 @@
         <v>39</v>
       </c>
       <c r="E93">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3286,7 +3280,7 @@
         <v>39</v>
       </c>
       <c r="E94">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -3318,7 +3312,7 @@
         <v>39</v>
       </c>
       <c r="E95">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3350,7 +3344,7 @@
         <v>39</v>
       </c>
       <c r="E96">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -3382,7 +3376,7 @@
         <v>39</v>
       </c>
       <c r="E97">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -3414,7 +3408,7 @@
         <v>39</v>
       </c>
       <c r="E98">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -3446,7 +3440,7 @@
         <v>39</v>
       </c>
       <c r="E99">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -3478,7 +3472,7 @@
         <v>39</v>
       </c>
       <c r="E100">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -3510,7 +3504,7 @@
         <v>39</v>
       </c>
       <c r="E101">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -3542,7 +3536,7 @@
         <v>39</v>
       </c>
       <c r="E102">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -3574,7 +3568,7 @@
         <v>39</v>
       </c>
       <c r="E103">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -3606,7 +3600,7 @@
         <v>39</v>
       </c>
       <c r="E104">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -3638,7 +3632,7 @@
         <v>39</v>
       </c>
       <c r="E105">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -3670,7 +3664,7 @@
         <v>39</v>
       </c>
       <c r="E106">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3696,13 +3690,13 @@
         <v>66</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D107" t="s">
         <v>39</v>
       </c>
       <c r="E107">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -3734,7 +3728,7 @@
         <v>39</v>
       </c>
       <c r="E108">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3766,7 +3760,7 @@
         <v>39</v>
       </c>
       <c r="E109">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3798,7 +3792,7 @@
         <v>39</v>
       </c>
       <c r="E110">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3830,7 +3824,7 @@
         <v>39</v>
       </c>
       <c r="E111">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3862,10 +3856,10 @@
         <v>39</v>
       </c>
       <c r="E112">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G112">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H112" t="s">
         <v>55</v>
@@ -3894,10 +3888,10 @@
         <v>39</v>
       </c>
       <c r="E113">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H113" t="s">
         <v>55</v>
@@ -3926,7 +3920,7 @@
         <v>39</v>
       </c>
       <c r="E114">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3958,7 +3952,7 @@
         <v>39</v>
       </c>
       <c r="E115">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -3990,7 +3984,7 @@
         <v>39</v>
       </c>
       <c r="E116">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -4022,7 +4016,7 @@
         <v>39</v>
       </c>
       <c r="E117">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -4054,7 +4048,7 @@
         <v>39</v>
       </c>
       <c r="E118">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -4086,7 +4080,7 @@
         <v>39</v>
       </c>
       <c r="E119">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4118,7 +4112,7 @@
         <v>39</v>
       </c>
       <c r="E120">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4150,7 +4144,7 @@
         <v>39</v>
       </c>
       <c r="E121">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4182,7 +4176,7 @@
         <v>39</v>
       </c>
       <c r="E122">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4214,7 +4208,7 @@
         <v>39</v>
       </c>
       <c r="E123">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4246,7 +4240,7 @@
         <v>39</v>
       </c>
       <c r="E124">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4278,7 +4272,7 @@
         <v>39</v>
       </c>
       <c r="E125">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -4310,7 +4304,7 @@
         <v>39</v>
       </c>
       <c r="E126">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4342,7 +4336,7 @@
         <v>39</v>
       </c>
       <c r="E127">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4374,7 +4368,7 @@
         <v>39</v>
       </c>
       <c r="E128">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4406,7 +4400,7 @@
         <v>39</v>
       </c>
       <c r="E129">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4438,7 +4432,7 @@
         <v>39</v>
       </c>
       <c r="E130">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4470,7 +4464,7 @@
         <v>39</v>
       </c>
       <c r="E131">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -4502,7 +4496,7 @@
         <v>39</v>
       </c>
       <c r="E132">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -4534,7 +4528,7 @@
         <v>39</v>
       </c>
       <c r="E133">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4566,7 +4560,7 @@
         <v>39</v>
       </c>
       <c r="E134">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -4598,7 +4592,7 @@
         <v>39</v>
       </c>
       <c r="E135">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -4630,7 +4624,7 @@
         <v>39</v>
       </c>
       <c r="E136">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -4656,16 +4650,28 @@
         <v>66</v>
       </c>
       <c r="C137" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D137" t="s">
         <v>39</v>
       </c>
       <c r="E137">
-        <v>1990</v>
+        <v>2019</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137" t="s">
+        <v>55</v>
       </c>
       <c r="I137" t="s">
         <v>43</v>
+      </c>
+      <c r="J137" t="s">
+        <v>54</v>
+      </c>
+      <c r="L137" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -4682,7 +4688,7 @@
         <v>39</v>
       </c>
       <c r="E138">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I138" t="s">
         <v>43</v>
@@ -4702,7 +4708,7 @@
         <v>39</v>
       </c>
       <c r="E139">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I139" t="s">
         <v>43</v>
@@ -4722,7 +4728,7 @@
         <v>39</v>
       </c>
       <c r="E140">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I140" t="s">
         <v>43</v>
@@ -4742,7 +4748,7 @@
         <v>39</v>
       </c>
       <c r="E141">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I141" t="s">
         <v>43</v>
@@ -4762,7 +4768,7 @@
         <v>39</v>
       </c>
       <c r="E142">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I142" t="s">
         <v>43</v>
@@ -4782,7 +4788,7 @@
         <v>39</v>
       </c>
       <c r="E143">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I143" t="s">
         <v>43</v>
@@ -4802,7 +4808,7 @@
         <v>39</v>
       </c>
       <c r="E144">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I144" t="s">
         <v>43</v>
@@ -4822,7 +4828,7 @@
         <v>39</v>
       </c>
       <c r="E145">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I145" t="s">
         <v>43</v>
@@ -4842,7 +4848,7 @@
         <v>39</v>
       </c>
       <c r="E146">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I146" t="s">
         <v>43</v>
@@ -4862,7 +4868,7 @@
         <v>39</v>
       </c>
       <c r="E147">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I147" t="s">
         <v>43</v>
@@ -4882,7 +4888,7 @@
         <v>39</v>
       </c>
       <c r="E148">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I148" t="s">
         <v>43</v>
@@ -4902,7 +4908,7 @@
         <v>39</v>
       </c>
       <c r="E149">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I149" t="s">
         <v>43</v>
@@ -4922,7 +4928,7 @@
         <v>39</v>
       </c>
       <c r="E150">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I150" t="s">
         <v>43</v>
@@ -4942,7 +4948,7 @@
         <v>39</v>
       </c>
       <c r="E151">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I151" t="s">
         <v>43</v>
@@ -4962,7 +4968,7 @@
         <v>39</v>
       </c>
       <c r="E152">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I152" t="s">
         <v>43</v>
@@ -4982,7 +4988,7 @@
         <v>39</v>
       </c>
       <c r="E153">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I153" t="s">
         <v>43</v>
@@ -5002,7 +5008,7 @@
         <v>39</v>
       </c>
       <c r="E154">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I154" t="s">
         <v>43</v>
@@ -5022,7 +5028,7 @@
         <v>39</v>
       </c>
       <c r="E155">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I155" t="s">
         <v>43</v>
@@ -5042,7 +5048,7 @@
         <v>39</v>
       </c>
       <c r="E156">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I156" t="s">
         <v>43</v>
@@ -5062,7 +5068,7 @@
         <v>39</v>
       </c>
       <c r="E157">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I157" t="s">
         <v>43</v>
@@ -5082,7 +5088,7 @@
         <v>39</v>
       </c>
       <c r="E158">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I158" t="s">
         <v>43</v>
@@ -5102,7 +5108,7 @@
         <v>39</v>
       </c>
       <c r="E159">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I159" t="s">
         <v>43</v>
@@ -5122,7 +5128,7 @@
         <v>39</v>
       </c>
       <c r="E160">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I160" t="s">
         <v>43</v>
@@ -5142,7 +5148,7 @@
         <v>39</v>
       </c>
       <c r="E161">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I161" t="s">
         <v>43</v>
@@ -5162,7 +5168,7 @@
         <v>39</v>
       </c>
       <c r="E162">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I162" t="s">
         <v>43</v>
@@ -5182,7 +5188,7 @@
         <v>39</v>
       </c>
       <c r="E163">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I163" t="s">
         <v>43</v>
@@ -5202,7 +5208,7 @@
         <v>39</v>
       </c>
       <c r="E164">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I164" t="s">
         <v>43</v>
@@ -5222,22 +5228,10 @@
         <v>39</v>
       </c>
       <c r="E165">
-        <v>2018</v>
-      </c>
-      <c r="G165">
-        <v>67</v>
-      </c>
-      <c r="H165" t="s">
-        <v>57</v>
+        <v>2017</v>
       </c>
       <c r="I165" t="s">
         <v>43</v>
-      </c>
-      <c r="J165" t="s">
-        <v>58</v>
-      </c>
-      <c r="L165" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
@@ -5254,10 +5248,22 @@
         <v>39</v>
       </c>
       <c r="E166">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G166">
+        <v>67</v>
+      </c>
+      <c r="H166" t="s">
+        <v>57</v>
       </c>
       <c r="I166" t="s">
         <v>43</v>
+      </c>
+      <c r="J166" t="s">
+        <v>58</v>
+      </c>
+      <c r="L166" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
@@ -5268,13 +5274,13 @@
         <v>66</v>
       </c>
       <c r="C167" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D167" t="s">
         <v>39</v>
       </c>
       <c r="E167">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="I167" t="s">
         <v>43</v>
@@ -5294,7 +5300,7 @@
         <v>39</v>
       </c>
       <c r="E168">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I168" t="s">
         <v>43</v>
@@ -5314,7 +5320,7 @@
         <v>39</v>
       </c>
       <c r="E169">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I169" t="s">
         <v>43</v>
@@ -5334,7 +5340,7 @@
         <v>39</v>
       </c>
       <c r="E170">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I170" t="s">
         <v>43</v>
@@ -5354,7 +5360,7 @@
         <v>39</v>
       </c>
       <c r="E171">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I171" t="s">
         <v>43</v>
@@ -5374,7 +5380,7 @@
         <v>39</v>
       </c>
       <c r="E172">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I172" t="s">
         <v>43</v>
@@ -5394,7 +5400,7 @@
         <v>39</v>
       </c>
       <c r="E173">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I173" t="s">
         <v>43</v>
@@ -5414,7 +5420,7 @@
         <v>39</v>
       </c>
       <c r="E174">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I174" t="s">
         <v>43</v>
@@ -5434,7 +5440,7 @@
         <v>39</v>
       </c>
       <c r="E175">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I175" t="s">
         <v>43</v>
@@ -5454,7 +5460,7 @@
         <v>39</v>
       </c>
       <c r="E176">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I176" t="s">
         <v>43</v>
@@ -5474,7 +5480,7 @@
         <v>39</v>
       </c>
       <c r="E177">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I177" t="s">
         <v>43</v>
@@ -5494,7 +5500,7 @@
         <v>39</v>
       </c>
       <c r="E178">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I178" t="s">
         <v>43</v>
@@ -5514,7 +5520,7 @@
         <v>39</v>
       </c>
       <c r="E179">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I179" t="s">
         <v>43</v>
@@ -5534,7 +5540,7 @@
         <v>39</v>
       </c>
       <c r="E180">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I180" t="s">
         <v>43</v>
@@ -5554,7 +5560,7 @@
         <v>39</v>
       </c>
       <c r="E181">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I181" t="s">
         <v>43</v>
@@ -5574,7 +5580,7 @@
         <v>39</v>
       </c>
       <c r="E182">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I182" t="s">
         <v>43</v>
@@ -5594,7 +5600,7 @@
         <v>39</v>
       </c>
       <c r="E183">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I183" t="s">
         <v>43</v>
@@ -5614,7 +5620,7 @@
         <v>39</v>
       </c>
       <c r="E184">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I184" t="s">
         <v>43</v>
@@ -5634,7 +5640,7 @@
         <v>39</v>
       </c>
       <c r="E185">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I185" t="s">
         <v>43</v>
@@ -5654,7 +5660,7 @@
         <v>39</v>
       </c>
       <c r="E186">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I186" t="s">
         <v>43</v>
@@ -5674,7 +5680,7 @@
         <v>39</v>
       </c>
       <c r="E187">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I187" t="s">
         <v>43</v>
@@ -5694,7 +5700,7 @@
         <v>39</v>
       </c>
       <c r="E188">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I188" t="s">
         <v>43</v>
@@ -5714,7 +5720,7 @@
         <v>39</v>
       </c>
       <c r="E189">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I189" t="s">
         <v>43</v>
@@ -5734,7 +5740,7 @@
         <v>39</v>
       </c>
       <c r="E190">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I190" t="s">
         <v>43</v>
@@ -5754,7 +5760,7 @@
         <v>39</v>
       </c>
       <c r="E191">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I191" t="s">
         <v>43</v>
@@ -5774,7 +5780,7 @@
         <v>39</v>
       </c>
       <c r="E192">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I192" t="s">
         <v>43</v>
@@ -5794,7 +5800,7 @@
         <v>39</v>
       </c>
       <c r="E193">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I193" t="s">
         <v>43</v>
@@ -5814,7 +5820,7 @@
         <v>39</v>
       </c>
       <c r="E194">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I194" t="s">
         <v>43</v>
@@ -5834,22 +5840,10 @@
         <v>39</v>
       </c>
       <c r="E195">
-        <v>2018</v>
-      </c>
-      <c r="G195">
-        <v>2920</v>
-      </c>
-      <c r="H195" t="s">
-        <v>57</v>
+        <v>2017</v>
       </c>
       <c r="I195" t="s">
         <v>43</v>
-      </c>
-      <c r="J195" t="s">
-        <v>58</v>
-      </c>
-      <c r="L195" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
@@ -5866,10 +5860,22 @@
         <v>39</v>
       </c>
       <c r="E196">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G196">
+        <v>2920</v>
+      </c>
+      <c r="H196" t="s">
+        <v>57</v>
       </c>
       <c r="I196" t="s">
         <v>43</v>
+      </c>
+      <c r="J196" t="s">
+        <v>58</v>
+      </c>
+      <c r="L196" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
@@ -5880,13 +5886,13 @@
         <v>66</v>
       </c>
       <c r="C197" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D197" t="s">
         <v>39</v>
       </c>
       <c r="E197">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="I197" t="s">
         <v>43</v>
@@ -5906,7 +5912,7 @@
         <v>39</v>
       </c>
       <c r="E198">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I198" t="s">
         <v>43</v>
@@ -5926,7 +5932,7 @@
         <v>39</v>
       </c>
       <c r="E199">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I199" t="s">
         <v>43</v>
@@ -5946,7 +5952,7 @@
         <v>39</v>
       </c>
       <c r="E200">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I200" t="s">
         <v>43</v>
@@ -5966,7 +5972,7 @@
         <v>39</v>
       </c>
       <c r="E201">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I201" t="s">
         <v>43</v>
@@ -5986,7 +5992,7 @@
         <v>39</v>
       </c>
       <c r="E202">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I202" t="s">
         <v>43</v>
@@ -6006,7 +6012,7 @@
         <v>39</v>
       </c>
       <c r="E203">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I203" t="s">
         <v>43</v>
@@ -6026,7 +6032,7 @@
         <v>39</v>
       </c>
       <c r="E204">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I204" t="s">
         <v>43</v>
@@ -6046,7 +6052,7 @@
         <v>39</v>
       </c>
       <c r="E205">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I205" t="s">
         <v>43</v>
@@ -6066,7 +6072,7 @@
         <v>39</v>
       </c>
       <c r="E206">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I206" t="s">
         <v>43</v>
@@ -6086,7 +6092,7 @@
         <v>39</v>
       </c>
       <c r="E207">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I207" t="s">
         <v>43</v>
@@ -6106,7 +6112,7 @@
         <v>39</v>
       </c>
       <c r="E208">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I208" t="s">
         <v>43</v>
@@ -6126,7 +6132,7 @@
         <v>39</v>
       </c>
       <c r="E209">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I209" t="s">
         <v>43</v>
@@ -6146,7 +6152,7 @@
         <v>39</v>
       </c>
       <c r="E210">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I210" t="s">
         <v>43</v>
@@ -6166,7 +6172,7 @@
         <v>39</v>
       </c>
       <c r="E211">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I211" t="s">
         <v>43</v>
@@ -6186,7 +6192,7 @@
         <v>39</v>
       </c>
       <c r="E212">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I212" t="s">
         <v>43</v>
@@ -6206,7 +6212,7 @@
         <v>39</v>
       </c>
       <c r="E213">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I213" t="s">
         <v>43</v>
@@ -6226,7 +6232,7 @@
         <v>39</v>
       </c>
       <c r="E214">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I214" t="s">
         <v>43</v>
@@ -6246,7 +6252,7 @@
         <v>39</v>
       </c>
       <c r="E215">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I215" t="s">
         <v>43</v>
@@ -6266,7 +6272,7 @@
         <v>39</v>
       </c>
       <c r="E216">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I216" t="s">
         <v>43</v>
@@ -6286,7 +6292,7 @@
         <v>39</v>
       </c>
       <c r="E217">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I217" t="s">
         <v>43</v>
@@ -6306,7 +6312,7 @@
         <v>39</v>
       </c>
       <c r="E218">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I218" t="s">
         <v>43</v>
@@ -6326,7 +6332,7 @@
         <v>39</v>
       </c>
       <c r="E219">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I219" t="s">
         <v>43</v>
@@ -6346,7 +6352,7 @@
         <v>39</v>
       </c>
       <c r="E220">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I220" t="s">
         <v>43</v>
@@ -6366,7 +6372,7 @@
         <v>39</v>
       </c>
       <c r="E221">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I221" t="s">
         <v>43</v>
@@ -6386,7 +6392,7 @@
         <v>39</v>
       </c>
       <c r="E222">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I222" t="s">
         <v>43</v>
@@ -6406,7 +6412,7 @@
         <v>39</v>
       </c>
       <c r="E223">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I223" t="s">
         <v>43</v>
@@ -6426,7 +6432,7 @@
         <v>39</v>
       </c>
       <c r="E224">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I224" t="s">
         <v>43</v>
@@ -6446,22 +6452,10 @@
         <v>39</v>
       </c>
       <c r="E225">
-        <v>2018</v>
-      </c>
-      <c r="G225">
-        <v>5.5</v>
-      </c>
-      <c r="H225" t="s">
-        <v>60</v>
+        <v>2017</v>
       </c>
       <c r="I225" t="s">
         <v>43</v>
-      </c>
-      <c r="J225" t="s">
-        <v>58</v>
-      </c>
-      <c r="L225" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
@@ -6478,10 +6472,22 @@
         <v>39</v>
       </c>
       <c r="E226">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G226">
+        <v>5.5</v>
+      </c>
+      <c r="H226" t="s">
+        <v>60</v>
       </c>
       <c r="I226" t="s">
         <v>43</v>
+      </c>
+      <c r="J226" t="s">
+        <v>58</v>
+      </c>
+      <c r="L226" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
@@ -6492,28 +6498,16 @@
         <v>66</v>
       </c>
       <c r="C227" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D227" t="s">
         <v>39</v>
       </c>
       <c r="E227">
-        <v>1990</v>
-      </c>
-      <c r="G227">
-        <v>0</v>
-      </c>
-      <c r="H227" t="s">
-        <v>55</v>
+        <v>2019</v>
       </c>
       <c r="I227" t="s">
         <v>43</v>
-      </c>
-      <c r="J227" t="s">
-        <v>54</v>
-      </c>
-      <c r="L227" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
@@ -6530,7 +6524,7 @@
         <v>39</v>
       </c>
       <c r="E228">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G228">
         <v>0</v>
@@ -6562,7 +6556,7 @@
         <v>39</v>
       </c>
       <c r="E229">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -6594,7 +6588,7 @@
         <v>39</v>
       </c>
       <c r="E230">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -6626,7 +6620,7 @@
         <v>39</v>
       </c>
       <c r="E231">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6658,10 +6652,10 @@
         <v>39</v>
       </c>
       <c r="E232">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G232">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H232" t="s">
         <v>55</v>
@@ -6690,10 +6684,10 @@
         <v>39</v>
       </c>
       <c r="E233">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G233">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H233" t="s">
         <v>55</v>
@@ -6722,7 +6716,7 @@
         <v>39</v>
       </c>
       <c r="E234">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -6754,7 +6748,7 @@
         <v>39</v>
       </c>
       <c r="E235">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6786,7 +6780,7 @@
         <v>39</v>
       </c>
       <c r="E236">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -6818,7 +6812,7 @@
         <v>39</v>
       </c>
       <c r="E237">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -6850,7 +6844,7 @@
         <v>39</v>
       </c>
       <c r="E238">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -6882,7 +6876,7 @@
         <v>39</v>
       </c>
       <c r="E239">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -6914,7 +6908,7 @@
         <v>39</v>
       </c>
       <c r="E240">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -6946,7 +6940,7 @@
         <v>39</v>
       </c>
       <c r="E241">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -6978,7 +6972,7 @@
         <v>39</v>
       </c>
       <c r="E242">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -7010,7 +7004,7 @@
         <v>39</v>
       </c>
       <c r="E243">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -7042,7 +7036,7 @@
         <v>39</v>
       </c>
       <c r="E244">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -7074,7 +7068,7 @@
         <v>39</v>
       </c>
       <c r="E245">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -7106,7 +7100,7 @@
         <v>39</v>
       </c>
       <c r="E246">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -7138,7 +7132,7 @@
         <v>39</v>
       </c>
       <c r="E247">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -7170,7 +7164,7 @@
         <v>39</v>
       </c>
       <c r="E248">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -7202,7 +7196,7 @@
         <v>39</v>
       </c>
       <c r="E249">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -7234,7 +7228,7 @@
         <v>39</v>
       </c>
       <c r="E250">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -7266,7 +7260,7 @@
         <v>39</v>
       </c>
       <c r="E251">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -7298,7 +7292,7 @@
         <v>39</v>
       </c>
       <c r="E252">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -7330,7 +7324,7 @@
         <v>39</v>
       </c>
       <c r="E253">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7362,7 +7356,7 @@
         <v>39</v>
       </c>
       <c r="E254">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -7394,7 +7388,7 @@
         <v>39</v>
       </c>
       <c r="E255">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -7426,7 +7420,7 @@
         <v>39</v>
       </c>
       <c r="E256">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -7444,7 +7438,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>16</v>
       </c>
@@ -7452,25 +7446,31 @@
         <v>66</v>
       </c>
       <c r="C257" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D257" t="s">
         <v>39</v>
       </c>
       <c r="E257">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G257">
-        <v>1.1000000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="H257" t="s">
+        <v>55</v>
       </c>
       <c r="I257" t="s">
         <v>43</v>
       </c>
       <c r="J257" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="L257" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>16</v>
       </c>
@@ -7484,16 +7484,19 @@
         <v>39</v>
       </c>
       <c r="E258">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G258">
-        <v>0.85</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I258" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J258" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>16</v>
       </c>
@@ -7507,7 +7510,7 @@
         <v>39</v>
       </c>
       <c r="E259">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G259">
         <v>0.85</v>
@@ -7516,7 +7519,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>16</v>
       </c>
@@ -7530,7 +7533,7 @@
         <v>39</v>
       </c>
       <c r="E260">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G260">
         <v>0.85</v>
@@ -7539,7 +7542,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>16</v>
       </c>
@@ -7553,7 +7556,7 @@
         <v>39</v>
       </c>
       <c r="E261">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G261">
         <v>0.85</v>
@@ -7562,7 +7565,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>16</v>
       </c>
@@ -7576,7 +7579,7 @@
         <v>39</v>
       </c>
       <c r="E262">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G262">
         <v>0.85</v>
@@ -7585,7 +7588,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>16</v>
       </c>
@@ -7599,7 +7602,7 @@
         <v>39</v>
       </c>
       <c r="E263">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G263">
         <v>0.85</v>
@@ -7608,7 +7611,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>16</v>
       </c>
@@ -7622,7 +7625,7 @@
         <v>39</v>
       </c>
       <c r="E264">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G264">
         <v>0.85</v>
@@ -7631,7 +7634,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>16</v>
       </c>
@@ -7645,7 +7648,7 @@
         <v>39</v>
       </c>
       <c r="E265">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G265">
         <v>0.85</v>
@@ -7654,7 +7657,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>16</v>
       </c>
@@ -7668,7 +7671,7 @@
         <v>39</v>
       </c>
       <c r="E266">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G266">
         <v>0.85</v>
@@ -7677,7 +7680,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>16</v>
       </c>
@@ -7691,7 +7694,7 @@
         <v>39</v>
       </c>
       <c r="E267">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G267">
         <v>0.85</v>
@@ -7700,7 +7703,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>16</v>
       </c>
@@ -7714,7 +7717,7 @@
         <v>39</v>
       </c>
       <c r="E268">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G268">
         <v>0.85</v>
@@ -7723,7 +7726,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>16</v>
       </c>
@@ -7737,7 +7740,7 @@
         <v>39</v>
       </c>
       <c r="E269">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G269">
         <v>0.85</v>
@@ -7746,7 +7749,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>16</v>
       </c>
@@ -7760,7 +7763,7 @@
         <v>39</v>
       </c>
       <c r="E270">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G270">
         <v>0.85</v>
@@ -7769,7 +7772,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>16</v>
       </c>
@@ -7783,7 +7786,7 @@
         <v>39</v>
       </c>
       <c r="E271">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G271">
         <v>0.85</v>
@@ -7792,7 +7795,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>16</v>
       </c>
@@ -7806,7 +7809,7 @@
         <v>39</v>
       </c>
       <c r="E272">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G272">
         <v>0.85</v>
@@ -7829,7 +7832,7 @@
         <v>39</v>
       </c>
       <c r="E273">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G273">
         <v>0.85</v>
@@ -7852,7 +7855,7 @@
         <v>39</v>
       </c>
       <c r="E274">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G274">
         <v>0.85</v>
@@ -7875,7 +7878,7 @@
         <v>39</v>
       </c>
       <c r="E275">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G275">
         <v>0.85</v>
@@ -7898,7 +7901,7 @@
         <v>39</v>
       </c>
       <c r="E276">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G276">
         <v>0.85</v>
@@ -7921,7 +7924,7 @@
         <v>39</v>
       </c>
       <c r="E277">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G277">
         <v>0.85</v>
@@ -7944,7 +7947,7 @@
         <v>39</v>
       </c>
       <c r="E278">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G278">
         <v>0.85</v>
@@ -7967,7 +7970,7 @@
         <v>39</v>
       </c>
       <c r="E279">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G279">
         <v>0.85</v>
@@ -7990,7 +7993,7 @@
         <v>39</v>
       </c>
       <c r="E280">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G280">
         <v>0.85</v>
@@ -8013,7 +8016,7 @@
         <v>39</v>
       </c>
       <c r="E281">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G281">
         <v>0.85</v>
@@ -8036,7 +8039,7 @@
         <v>39</v>
       </c>
       <c r="E282">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G282">
         <v>0.85</v>
@@ -8059,7 +8062,7 @@
         <v>39</v>
       </c>
       <c r="E283">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G283">
         <v>0.85</v>
@@ -8082,7 +8085,7 @@
         <v>39</v>
       </c>
       <c r="E284">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G284">
         <v>0.85</v>
@@ -8105,7 +8108,7 @@
         <v>39</v>
       </c>
       <c r="E285">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G285">
         <v>0.85</v>
@@ -8128,7 +8131,7 @@
         <v>39</v>
       </c>
       <c r="E286">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G286">
         <v>0.85</v>
@@ -8145,22 +8148,19 @@
         <v>66</v>
       </c>
       <c r="C287" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D287" t="s">
         <v>39</v>
       </c>
       <c r="E287">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G287">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I287" t="s">
         <v>43</v>
-      </c>
-      <c r="J287" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
@@ -8177,13 +8177,16 @@
         <v>39</v>
       </c>
       <c r="E288">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G288">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I288" t="s">
         <v>43</v>
+      </c>
+      <c r="J288" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
@@ -8200,7 +8203,7 @@
         <v>39</v>
       </c>
       <c r="E289">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G289">
         <v>0.5</v>
@@ -8223,7 +8226,7 @@
         <v>39</v>
       </c>
       <c r="E290">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G290">
         <v>0.5</v>
@@ -8246,7 +8249,7 @@
         <v>39</v>
       </c>
       <c r="E291">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G291">
         <v>0.5</v>
@@ -8269,7 +8272,7 @@
         <v>39</v>
       </c>
       <c r="E292">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G292">
         <v>0.5</v>
@@ -8292,7 +8295,7 @@
         <v>39</v>
       </c>
       <c r="E293">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G293">
         <v>0.5</v>
@@ -8315,7 +8318,7 @@
         <v>39</v>
       </c>
       <c r="E294">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G294">
         <v>0.5</v>
@@ -8338,7 +8341,7 @@
         <v>39</v>
       </c>
       <c r="E295">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G295">
         <v>0.5</v>
@@ -8361,7 +8364,7 @@
         <v>39</v>
       </c>
       <c r="E296">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G296">
         <v>0.5</v>
@@ -8384,7 +8387,7 @@
         <v>39</v>
       </c>
       <c r="E297">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G297">
         <v>0.5</v>
@@ -8407,7 +8410,7 @@
         <v>39</v>
       </c>
       <c r="E298">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G298">
         <v>0.5</v>
@@ -8430,7 +8433,7 @@
         <v>39</v>
       </c>
       <c r="E299">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G299">
         <v>0.5</v>
@@ -8453,7 +8456,7 @@
         <v>39</v>
       </c>
       <c r="E300">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G300">
         <v>0.5</v>
@@ -8476,7 +8479,7 @@
         <v>39</v>
       </c>
       <c r="E301">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G301">
         <v>0.5</v>
@@ -8499,7 +8502,7 @@
         <v>39</v>
       </c>
       <c r="E302">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G302">
         <v>0.5</v>
@@ -8522,7 +8525,7 @@
         <v>39</v>
       </c>
       <c r="E303">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G303">
         <v>0.5</v>
@@ -8545,7 +8548,7 @@
         <v>39</v>
       </c>
       <c r="E304">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G304">
         <v>0.5</v>
@@ -8568,7 +8571,7 @@
         <v>39</v>
       </c>
       <c r="E305">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G305">
         <v>0.5</v>
@@ -8591,7 +8594,7 @@
         <v>39</v>
       </c>
       <c r="E306">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G306">
         <v>0.5</v>
@@ -8614,7 +8617,7 @@
         <v>39</v>
       </c>
       <c r="E307">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G307">
         <v>0.5</v>
@@ -8637,7 +8640,7 @@
         <v>39</v>
       </c>
       <c r="E308">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G308">
         <v>0.5</v>
@@ -8660,7 +8663,7 @@
         <v>39</v>
       </c>
       <c r="E309">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G309">
         <v>0.5</v>
@@ -8683,7 +8686,7 @@
         <v>39</v>
       </c>
       <c r="E310">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G310">
         <v>0.5</v>
@@ -8706,7 +8709,7 @@
         <v>39</v>
       </c>
       <c r="E311">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G311">
         <v>0.5</v>
@@ -8729,7 +8732,7 @@
         <v>39</v>
       </c>
       <c r="E312">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G312">
         <v>0.5</v>
@@ -8752,7 +8755,7 @@
         <v>39</v>
       </c>
       <c r="E313">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G313">
         <v>0.5</v>
@@ -8775,7 +8778,7 @@
         <v>39</v>
       </c>
       <c r="E314">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G314">
         <v>0.5</v>
@@ -8798,7 +8801,7 @@
         <v>39</v>
       </c>
       <c r="E315">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G315">
         <v>0.5</v>
@@ -8821,7 +8824,7 @@
         <v>39</v>
       </c>
       <c r="E316">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G316">
         <v>0.5</v>
@@ -8830,11 +8833,34 @@
         <v>43</v>
       </c>
     </row>
-    <row r="429" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K429" s="2"/>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>16</v>
+      </c>
+      <c r="B317" t="s">
+        <v>66</v>
+      </c>
+      <c r="C317" t="s">
+        <v>29</v>
+      </c>
+      <c r="D317" t="s">
+        <v>39</v>
+      </c>
+      <c r="E317">
+        <v>2019</v>
+      </c>
+      <c r="G317">
+        <v>0.5</v>
+      </c>
+      <c r="I317" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="430" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K430" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L849" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L850" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo_ivan/conversion/chp/CHE_convchp_coal.xlsx
+++ b/data/zenodo_ivan/conversion/chp/CHE_convchp_coal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/chp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5901251D-8951-CA4E-AA12-B809C652C3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F214FBDC-8DBF-AA48-9C2F-F9DA6CF66764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$850</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$852</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="73">
   <si>
     <t>Name:</t>
   </si>
@@ -243,6 +243,15 @@
   </si>
   <si>
     <t>GW/TWh</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>configuration_fxe</t>
   </si>
 </sst>
 </file>
@@ -664,11 +673,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L430"/>
+  <dimension ref="A1:L432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -770,16 +779,16 @@
         <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
         <v>65</v>
       </c>
       <c r="G7">
-        <v>0.28399999999999997</v>
+        <v>1</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -791,16 +800,16 @@
         <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
         <v>63</v>
       </c>
       <c r="G8">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2"/>
     </row>
@@ -812,26 +821,18 @@
         <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>67</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
       </c>
       <c r="G9">
-        <v>1.5</v>
-      </c>
-      <c r="H9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" t="s">
-        <v>45</v>
-      </c>
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -841,17 +842,18 @@
         <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>67</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
       </c>
       <c r="G10">
-        <v>1E-3</v>
-      </c>
-      <c r="H10" t="s">
-        <v>69</v>
-      </c>
+        <v>0.95</v>
+      </c>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -860,26 +862,26 @@
       <c r="B11" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
+      <c r="C11" t="s">
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
       </c>
       <c r="G11">
-        <v>353.88</v>
+        <v>1.5</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I11" t="s">
         <v>43</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -889,19 +891,18 @@
       <c r="B12" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
+      <c r="C12" t="s">
+        <v>68</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="G12">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -911,21 +912,26 @@
         <v>66</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
       <c r="G13">
-        <v>40</v>
+        <v>353.88</v>
       </c>
       <c r="H13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="2"/>
+      <c r="J13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -935,13 +941,13 @@
         <v>66</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="H14" t="s">
-        <v>50</v>
+      <c r="G14">
+        <v>8.3000000000000007</v>
       </c>
       <c r="I14" t="s">
         <v>43</v>
@@ -956,13 +962,19 @@
         <v>66</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
+      <c r="G15">
+        <v>40</v>
+      </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="I15" t="s">
+        <v>43</v>
       </c>
       <c r="K15" s="2"/>
     </row>
@@ -974,19 +986,16 @@
         <v>66</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
-      <c r="G16">
-        <v>0.88</v>
+      <c r="H16" t="s">
+        <v>50</v>
       </c>
       <c r="I16" t="s">
         <v>43</v>
-      </c>
-      <c r="J16" t="s">
-        <v>51</v>
       </c>
       <c r="K16" s="2"/>
     </row>
@@ -998,19 +1007,13 @@
         <v>66</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
       </c>
-      <c r="G17">
-        <v>0.6</v>
-      </c>
-      <c r="I17" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" t="s">
-        <v>52</v>
+      <c r="H17" t="s">
+        <v>42</v>
       </c>
       <c r="K17" s="2"/>
     </row>
@@ -1021,27 +1024,22 @@
       <c r="B18" t="s">
         <v>66</v>
       </c>
-      <c r="C18" t="s">
-        <v>17</v>
+      <c r="C18" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18">
-        <v>1990</v>
+        <v>38</v>
       </c>
       <c r="G18">
-        <v>40</v>
-      </c>
-      <c r="H18" t="s">
-        <v>53</v>
+        <v>0.88</v>
       </c>
       <c r="I18" t="s">
         <v>43</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1050,27 +1048,22 @@
       <c r="B19" t="s">
         <v>66</v>
       </c>
-      <c r="C19" t="s">
-        <v>17</v>
+      <c r="C19" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19">
-        <v>1991</v>
+        <v>38</v>
       </c>
       <c r="G19">
-        <v>40</v>
-      </c>
-      <c r="H19" t="s">
-        <v>53</v>
+        <v>0.6</v>
       </c>
       <c r="I19" t="s">
         <v>43</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1086,7 +1079,7 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G20">
         <v>40</v>
@@ -1115,7 +1108,7 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G21">
         <v>40</v>
@@ -1144,7 +1137,7 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G22">
         <v>40</v>
@@ -1173,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="E23">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s">
         <v>53</v>
@@ -1202,10 +1195,10 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s">
         <v>53</v>
@@ -1231,7 +1224,7 @@
         <v>39</v>
       </c>
       <c r="E25">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1260,7 +1253,7 @@
         <v>39</v>
       </c>
       <c r="E26">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1289,7 +1282,7 @@
         <v>39</v>
       </c>
       <c r="E27">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1318,7 +1311,7 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1347,7 +1340,7 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1376,7 +1369,7 @@
         <v>39</v>
       </c>
       <c r="E30">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1405,7 +1398,7 @@
         <v>39</v>
       </c>
       <c r="E31">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1434,7 +1427,7 @@
         <v>39</v>
       </c>
       <c r="E32">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1463,7 +1456,7 @@
         <v>39</v>
       </c>
       <c r="E33">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1492,7 +1485,7 @@
         <v>39</v>
       </c>
       <c r="E34">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1521,7 +1514,7 @@
         <v>39</v>
       </c>
       <c r="E35">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1550,7 +1543,7 @@
         <v>39</v>
       </c>
       <c r="E36">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1579,7 +1572,7 @@
         <v>39</v>
       </c>
       <c r="E37">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1608,7 +1601,7 @@
         <v>39</v>
       </c>
       <c r="E38">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1637,7 +1630,7 @@
         <v>39</v>
       </c>
       <c r="E39">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1666,7 +1659,7 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1695,7 +1688,7 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1724,7 +1717,7 @@
         <v>39</v>
       </c>
       <c r="E42">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -1753,7 +1746,7 @@
         <v>39</v>
       </c>
       <c r="E43">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -1782,7 +1775,7 @@
         <v>39</v>
       </c>
       <c r="E44">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -1811,7 +1804,7 @@
         <v>39</v>
       </c>
       <c r="E45">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -1840,7 +1833,7 @@
         <v>39</v>
       </c>
       <c r="E46">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -1869,7 +1862,7 @@
         <v>39</v>
       </c>
       <c r="E47">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -1892,19 +1885,19 @@
         <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D48" t="s">
         <v>39</v>
       </c>
       <c r="E48">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G48">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I48" t="s">
         <v>43</v>
@@ -1921,19 +1914,19 @@
         <v>66</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D49" t="s">
         <v>39</v>
       </c>
       <c r="E49">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G49">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I49" t="s">
         <v>43</v>
@@ -1956,7 +1949,7 @@
         <v>39</v>
       </c>
       <c r="E50">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G50">
         <v>20</v>
@@ -1985,7 +1978,7 @@
         <v>39</v>
       </c>
       <c r="E51">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G51">
         <v>20</v>
@@ -2014,7 +2007,7 @@
         <v>39</v>
       </c>
       <c r="E52">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G52">
         <v>20</v>
@@ -2043,10 +2036,10 @@
         <v>39</v>
       </c>
       <c r="E53">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H53" t="s">
         <v>55</v>
@@ -2072,10 +2065,10 @@
         <v>39</v>
       </c>
       <c r="E54">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H54" t="s">
         <v>55</v>
@@ -2101,7 +2094,7 @@
         <v>39</v>
       </c>
       <c r="E55">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2130,7 +2123,7 @@
         <v>39</v>
       </c>
       <c r="E56">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2159,7 +2152,7 @@
         <v>39</v>
       </c>
       <c r="E57">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2188,7 +2181,7 @@
         <v>39</v>
       </c>
       <c r="E58">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2217,7 +2210,7 @@
         <v>39</v>
       </c>
       <c r="E59">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2246,7 +2239,7 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -2275,7 +2268,7 @@
         <v>39</v>
       </c>
       <c r="E61">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -2304,7 +2297,7 @@
         <v>39</v>
       </c>
       <c r="E62">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -2333,7 +2326,7 @@
         <v>39</v>
       </c>
       <c r="E63">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2362,7 +2355,7 @@
         <v>39</v>
       </c>
       <c r="E64">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -2391,7 +2384,7 @@
         <v>39</v>
       </c>
       <c r="E65">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -2420,7 +2413,7 @@
         <v>39</v>
       </c>
       <c r="E66">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -2449,7 +2442,7 @@
         <v>39</v>
       </c>
       <c r="E67">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -2478,7 +2471,7 @@
         <v>39</v>
       </c>
       <c r="E68">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -2507,7 +2500,7 @@
         <v>39</v>
       </c>
       <c r="E69">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -2536,7 +2529,7 @@
         <v>39</v>
       </c>
       <c r="E70">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2565,7 +2558,7 @@
         <v>39</v>
       </c>
       <c r="E71">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -2594,7 +2587,7 @@
         <v>39</v>
       </c>
       <c r="E72">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -2623,7 +2616,7 @@
         <v>39</v>
       </c>
       <c r="E73">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -2652,7 +2645,7 @@
         <v>39</v>
       </c>
       <c r="E74">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -2681,7 +2674,7 @@
         <v>39</v>
       </c>
       <c r="E75">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -2710,7 +2703,7 @@
         <v>39</v>
       </c>
       <c r="E76">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -2739,7 +2732,7 @@
         <v>39</v>
       </c>
       <c r="E77">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -2762,13 +2755,13 @@
         <v>66</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
         <v>39</v>
       </c>
       <c r="E78">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -2781,9 +2774,6 @@
       </c>
       <c r="J78" t="s">
         <v>54</v>
-      </c>
-      <c r="L78" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -2794,13 +2784,13 @@
         <v>66</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
         <v>39</v>
       </c>
       <c r="E79">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -2813,9 +2803,6 @@
       </c>
       <c r="J79" t="s">
         <v>54</v>
-      </c>
-      <c r="L79" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -2832,7 +2819,7 @@
         <v>39</v>
       </c>
       <c r="E80">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -2864,7 +2851,7 @@
         <v>39</v>
       </c>
       <c r="E81">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2896,7 +2883,7 @@
         <v>39</v>
       </c>
       <c r="E82">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2928,7 +2915,7 @@
         <v>39</v>
       </c>
       <c r="E83">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2960,7 +2947,7 @@
         <v>39</v>
       </c>
       <c r="E84">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -2992,7 +2979,7 @@
         <v>39</v>
       </c>
       <c r="E85">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -3024,7 +3011,7 @@
         <v>39</v>
       </c>
       <c r="E86">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -3056,7 +3043,7 @@
         <v>39</v>
       </c>
       <c r="E87">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -3088,7 +3075,7 @@
         <v>39</v>
       </c>
       <c r="E88">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3120,7 +3107,7 @@
         <v>39</v>
       </c>
       <c r="E89">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -3152,7 +3139,7 @@
         <v>39</v>
       </c>
       <c r="E90">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3184,7 +3171,7 @@
         <v>39</v>
       </c>
       <c r="E91">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -3216,7 +3203,7 @@
         <v>39</v>
       </c>
       <c r="E92">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3248,7 +3235,7 @@
         <v>39</v>
       </c>
       <c r="E93">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3280,7 +3267,7 @@
         <v>39</v>
       </c>
       <c r="E94">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -3312,7 +3299,7 @@
         <v>39</v>
       </c>
       <c r="E95">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3344,7 +3331,7 @@
         <v>39</v>
       </c>
       <c r="E96">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -3376,7 +3363,7 @@
         <v>39</v>
       </c>
       <c r="E97">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -3408,7 +3395,7 @@
         <v>39</v>
       </c>
       <c r="E98">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -3440,7 +3427,7 @@
         <v>39</v>
       </c>
       <c r="E99">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -3472,7 +3459,7 @@
         <v>39</v>
       </c>
       <c r="E100">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -3504,7 +3491,7 @@
         <v>39</v>
       </c>
       <c r="E101">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -3536,7 +3523,7 @@
         <v>39</v>
       </c>
       <c r="E102">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -3568,7 +3555,7 @@
         <v>39</v>
       </c>
       <c r="E103">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -3600,7 +3587,7 @@
         <v>39</v>
       </c>
       <c r="E104">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -3632,7 +3619,7 @@
         <v>39</v>
       </c>
       <c r="E105">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -3664,7 +3651,7 @@
         <v>39</v>
       </c>
       <c r="E106">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3696,7 +3683,7 @@
         <v>39</v>
       </c>
       <c r="E107">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -3722,13 +3709,13 @@
         <v>66</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D108" t="s">
         <v>39</v>
       </c>
       <c r="E108">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3754,13 +3741,13 @@
         <v>66</v>
       </c>
       <c r="C109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D109" t="s">
         <v>39</v>
       </c>
       <c r="E109">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3792,7 +3779,7 @@
         <v>39</v>
       </c>
       <c r="E110">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3824,7 +3811,7 @@
         <v>39</v>
       </c>
       <c r="E111">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3856,7 +3843,7 @@
         <v>39</v>
       </c>
       <c r="E112">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3888,10 +3875,10 @@
         <v>39</v>
       </c>
       <c r="E113">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G113">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H113" t="s">
         <v>55</v>
@@ -3920,7 +3907,7 @@
         <v>39</v>
       </c>
       <c r="E114">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3952,10 +3939,10 @@
         <v>39</v>
       </c>
       <c r="E115">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H115" t="s">
         <v>55</v>
@@ -3984,7 +3971,7 @@
         <v>39</v>
       </c>
       <c r="E116">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -4016,7 +4003,7 @@
         <v>39</v>
       </c>
       <c r="E117">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -4048,7 +4035,7 @@
         <v>39</v>
       </c>
       <c r="E118">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -4080,7 +4067,7 @@
         <v>39</v>
       </c>
       <c r="E119">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4112,7 +4099,7 @@
         <v>39</v>
       </c>
       <c r="E120">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4144,7 +4131,7 @@
         <v>39</v>
       </c>
       <c r="E121">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4176,7 +4163,7 @@
         <v>39</v>
       </c>
       <c r="E122">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4208,7 +4195,7 @@
         <v>39</v>
       </c>
       <c r="E123">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4240,7 +4227,7 @@
         <v>39</v>
       </c>
       <c r="E124">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4272,7 +4259,7 @@
         <v>39</v>
       </c>
       <c r="E125">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -4304,7 +4291,7 @@
         <v>39</v>
       </c>
       <c r="E126">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4336,7 +4323,7 @@
         <v>39</v>
       </c>
       <c r="E127">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4368,7 +4355,7 @@
         <v>39</v>
       </c>
       <c r="E128">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4400,7 +4387,7 @@
         <v>39</v>
       </c>
       <c r="E129">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4432,7 +4419,7 @@
         <v>39</v>
       </c>
       <c r="E130">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4464,7 +4451,7 @@
         <v>39</v>
       </c>
       <c r="E131">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -4496,7 +4483,7 @@
         <v>39</v>
       </c>
       <c r="E132">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -4528,7 +4515,7 @@
         <v>39</v>
       </c>
       <c r="E133">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4560,7 +4547,7 @@
         <v>39</v>
       </c>
       <c r="E134">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -4592,7 +4579,7 @@
         <v>39</v>
       </c>
       <c r="E135">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -4624,7 +4611,7 @@
         <v>39</v>
       </c>
       <c r="E136">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -4656,7 +4643,7 @@
         <v>39</v>
       </c>
       <c r="E137">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -4682,16 +4669,28 @@
         <v>66</v>
       </c>
       <c r="C138" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D138" t="s">
         <v>39</v>
       </c>
       <c r="E138">
-        <v>1990</v>
+        <v>2018</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138" t="s">
+        <v>55</v>
       </c>
       <c r="I138" t="s">
         <v>43</v>
+      </c>
+      <c r="J138" t="s">
+        <v>54</v>
+      </c>
+      <c r="L138" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -4702,16 +4701,28 @@
         <v>66</v>
       </c>
       <c r="C139" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D139" t="s">
         <v>39</v>
       </c>
       <c r="E139">
-        <v>1991</v>
+        <v>2019</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139" t="s">
+        <v>55</v>
       </c>
       <c r="I139" t="s">
         <v>43</v>
+      </c>
+      <c r="J139" t="s">
+        <v>54</v>
+      </c>
+      <c r="L139" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -4728,7 +4739,7 @@
         <v>39</v>
       </c>
       <c r="E140">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I140" t="s">
         <v>43</v>
@@ -4748,7 +4759,7 @@
         <v>39</v>
       </c>
       <c r="E141">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="I141" t="s">
         <v>43</v>
@@ -4768,7 +4779,7 @@
         <v>39</v>
       </c>
       <c r="E142">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="I142" t="s">
         <v>43</v>
@@ -4788,7 +4799,7 @@
         <v>39</v>
       </c>
       <c r="E143">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="I143" t="s">
         <v>43</v>
@@ -4808,7 +4819,7 @@
         <v>39</v>
       </c>
       <c r="E144">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="I144" t="s">
         <v>43</v>
@@ -4828,7 +4839,7 @@
         <v>39</v>
       </c>
       <c r="E145">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="I145" t="s">
         <v>43</v>
@@ -4848,7 +4859,7 @@
         <v>39</v>
       </c>
       <c r="E146">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="I146" t="s">
         <v>43</v>
@@ -4868,7 +4879,7 @@
         <v>39</v>
       </c>
       <c r="E147">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="I147" t="s">
         <v>43</v>
@@ -4888,7 +4899,7 @@
         <v>39</v>
       </c>
       <c r="E148">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="I148" t="s">
         <v>43</v>
@@ -4908,7 +4919,7 @@
         <v>39</v>
       </c>
       <c r="E149">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="I149" t="s">
         <v>43</v>
@@ -4928,7 +4939,7 @@
         <v>39</v>
       </c>
       <c r="E150">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="I150" t="s">
         <v>43</v>
@@ -4948,7 +4959,7 @@
         <v>39</v>
       </c>
       <c r="E151">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="I151" t="s">
         <v>43</v>
@@ -4968,7 +4979,7 @@
         <v>39</v>
       </c>
       <c r="E152">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="I152" t="s">
         <v>43</v>
@@ -4988,7 +4999,7 @@
         <v>39</v>
       </c>
       <c r="E153">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="I153" t="s">
         <v>43</v>
@@ -5008,7 +5019,7 @@
         <v>39</v>
       </c>
       <c r="E154">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I154" t="s">
         <v>43</v>
@@ -5028,7 +5039,7 @@
         <v>39</v>
       </c>
       <c r="E155">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I155" t="s">
         <v>43</v>
@@ -5048,7 +5059,7 @@
         <v>39</v>
       </c>
       <c r="E156">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I156" t="s">
         <v>43</v>
@@ -5068,7 +5079,7 @@
         <v>39</v>
       </c>
       <c r="E157">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="I157" t="s">
         <v>43</v>
@@ -5088,7 +5099,7 @@
         <v>39</v>
       </c>
       <c r="E158">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="I158" t="s">
         <v>43</v>
@@ -5108,7 +5119,7 @@
         <v>39</v>
       </c>
       <c r="E159">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I159" t="s">
         <v>43</v>
@@ -5128,7 +5139,7 @@
         <v>39</v>
       </c>
       <c r="E160">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="I160" t="s">
         <v>43</v>
@@ -5148,7 +5159,7 @@
         <v>39</v>
       </c>
       <c r="E161">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="I161" t="s">
         <v>43</v>
@@ -5168,7 +5179,7 @@
         <v>39</v>
       </c>
       <c r="E162">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="I162" t="s">
         <v>43</v>
@@ -5188,7 +5199,7 @@
         <v>39</v>
       </c>
       <c r="E163">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="I163" t="s">
         <v>43</v>
@@ -5208,7 +5219,7 @@
         <v>39</v>
       </c>
       <c r="E164">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="I164" t="s">
         <v>43</v>
@@ -5228,7 +5239,7 @@
         <v>39</v>
       </c>
       <c r="E165">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="I165" t="s">
         <v>43</v>
@@ -5248,22 +5259,10 @@
         <v>39</v>
       </c>
       <c r="E166">
-        <v>2018</v>
-      </c>
-      <c r="G166">
-        <v>67</v>
-      </c>
-      <c r="H166" t="s">
-        <v>57</v>
+        <v>2016</v>
       </c>
       <c r="I166" t="s">
         <v>43</v>
-      </c>
-      <c r="J166" t="s">
-        <v>58</v>
-      </c>
-      <c r="L166" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
@@ -5280,7 +5279,7 @@
         <v>39</v>
       </c>
       <c r="E167">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="I167" t="s">
         <v>43</v>
@@ -5294,16 +5293,28 @@
         <v>66</v>
       </c>
       <c r="C168" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D168" t="s">
         <v>39</v>
       </c>
       <c r="E168">
-        <v>1990</v>
+        <v>2018</v>
+      </c>
+      <c r="G168">
+        <v>67</v>
+      </c>
+      <c r="H168" t="s">
+        <v>57</v>
       </c>
       <c r="I168" t="s">
         <v>43</v>
+      </c>
+      <c r="J168" t="s">
+        <v>58</v>
+      </c>
+      <c r="L168" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
@@ -5314,13 +5325,13 @@
         <v>66</v>
       </c>
       <c r="C169" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D169" t="s">
         <v>39</v>
       </c>
       <c r="E169">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="I169" t="s">
         <v>43</v>
@@ -5340,7 +5351,7 @@
         <v>39</v>
       </c>
       <c r="E170">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I170" t="s">
         <v>43</v>
@@ -5360,7 +5371,7 @@
         <v>39</v>
       </c>
       <c r="E171">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="I171" t="s">
         <v>43</v>
@@ -5380,7 +5391,7 @@
         <v>39</v>
       </c>
       <c r="E172">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="I172" t="s">
         <v>43</v>
@@ -5400,7 +5411,7 @@
         <v>39</v>
       </c>
       <c r="E173">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="I173" t="s">
         <v>43</v>
@@ -5420,7 +5431,7 @@
         <v>39</v>
       </c>
       <c r="E174">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="I174" t="s">
         <v>43</v>
@@ -5440,7 +5451,7 @@
         <v>39</v>
       </c>
       <c r="E175">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="I175" t="s">
         <v>43</v>
@@ -5460,7 +5471,7 @@
         <v>39</v>
       </c>
       <c r="E176">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="I176" t="s">
         <v>43</v>
@@ -5480,7 +5491,7 @@
         <v>39</v>
       </c>
       <c r="E177">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="I177" t="s">
         <v>43</v>
@@ -5500,7 +5511,7 @@
         <v>39</v>
       </c>
       <c r="E178">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="I178" t="s">
         <v>43</v>
@@ -5520,7 +5531,7 @@
         <v>39</v>
       </c>
       <c r="E179">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="I179" t="s">
         <v>43</v>
@@ -5540,7 +5551,7 @@
         <v>39</v>
       </c>
       <c r="E180">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="I180" t="s">
         <v>43</v>
@@ -5560,7 +5571,7 @@
         <v>39</v>
       </c>
       <c r="E181">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="I181" t="s">
         <v>43</v>
@@ -5580,7 +5591,7 @@
         <v>39</v>
       </c>
       <c r="E182">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="I182" t="s">
         <v>43</v>
@@ -5600,7 +5611,7 @@
         <v>39</v>
       </c>
       <c r="E183">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="I183" t="s">
         <v>43</v>
@@ -5620,7 +5631,7 @@
         <v>39</v>
       </c>
       <c r="E184">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I184" t="s">
         <v>43</v>
@@ -5640,7 +5651,7 @@
         <v>39</v>
       </c>
       <c r="E185">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I185" t="s">
         <v>43</v>
@@ -5660,7 +5671,7 @@
         <v>39</v>
       </c>
       <c r="E186">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I186" t="s">
         <v>43</v>
@@ -5680,7 +5691,7 @@
         <v>39</v>
       </c>
       <c r="E187">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="I187" t="s">
         <v>43</v>
@@ -5700,7 +5711,7 @@
         <v>39</v>
       </c>
       <c r="E188">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="I188" t="s">
         <v>43</v>
@@ -5720,7 +5731,7 @@
         <v>39</v>
       </c>
       <c r="E189">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I189" t="s">
         <v>43</v>
@@ -5740,7 +5751,7 @@
         <v>39</v>
       </c>
       <c r="E190">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="I190" t="s">
         <v>43</v>
@@ -5760,7 +5771,7 @@
         <v>39</v>
       </c>
       <c r="E191">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="I191" t="s">
         <v>43</v>
@@ -5780,7 +5791,7 @@
         <v>39</v>
       </c>
       <c r="E192">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="I192" t="s">
         <v>43</v>
@@ -5800,7 +5811,7 @@
         <v>39</v>
       </c>
       <c r="E193">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="I193" t="s">
         <v>43</v>
@@ -5820,7 +5831,7 @@
         <v>39</v>
       </c>
       <c r="E194">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="I194" t="s">
         <v>43</v>
@@ -5840,7 +5851,7 @@
         <v>39</v>
       </c>
       <c r="E195">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="I195" t="s">
         <v>43</v>
@@ -5860,22 +5871,10 @@
         <v>39</v>
       </c>
       <c r="E196">
-        <v>2018</v>
-      </c>
-      <c r="G196">
-        <v>2920</v>
-      </c>
-      <c r="H196" t="s">
-        <v>57</v>
+        <v>2016</v>
       </c>
       <c r="I196" t="s">
         <v>43</v>
-      </c>
-      <c r="J196" t="s">
-        <v>58</v>
-      </c>
-      <c r="L196" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
@@ -5892,7 +5891,7 @@
         <v>39</v>
       </c>
       <c r="E197">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="I197" t="s">
         <v>43</v>
@@ -5906,16 +5905,28 @@
         <v>66</v>
       </c>
       <c r="C198" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D198" t="s">
         <v>39</v>
       </c>
       <c r="E198">
-        <v>1990</v>
+        <v>2018</v>
+      </c>
+      <c r="G198">
+        <v>2920</v>
+      </c>
+      <c r="H198" t="s">
+        <v>57</v>
       </c>
       <c r="I198" t="s">
         <v>43</v>
+      </c>
+      <c r="J198" t="s">
+        <v>58</v>
+      </c>
+      <c r="L198" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -5926,13 +5937,13 @@
         <v>66</v>
       </c>
       <c r="C199" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D199" t="s">
         <v>39</v>
       </c>
       <c r="E199">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="I199" t="s">
         <v>43</v>
@@ -5952,7 +5963,7 @@
         <v>39</v>
       </c>
       <c r="E200">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I200" t="s">
         <v>43</v>
@@ -5972,7 +5983,7 @@
         <v>39</v>
       </c>
       <c r="E201">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="I201" t="s">
         <v>43</v>
@@ -5992,7 +6003,7 @@
         <v>39</v>
       </c>
       <c r="E202">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="I202" t="s">
         <v>43</v>
@@ -6012,7 +6023,7 @@
         <v>39</v>
       </c>
       <c r="E203">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="I203" t="s">
         <v>43</v>
@@ -6032,7 +6043,7 @@
         <v>39</v>
       </c>
       <c r="E204">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="I204" t="s">
         <v>43</v>
@@ -6052,7 +6063,7 @@
         <v>39</v>
       </c>
       <c r="E205">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="I205" t="s">
         <v>43</v>
@@ -6072,7 +6083,7 @@
         <v>39</v>
       </c>
       <c r="E206">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="I206" t="s">
         <v>43</v>
@@ -6092,7 +6103,7 @@
         <v>39</v>
       </c>
       <c r="E207">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="I207" t="s">
         <v>43</v>
@@ -6112,7 +6123,7 @@
         <v>39</v>
       </c>
       <c r="E208">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="I208" t="s">
         <v>43</v>
@@ -6132,7 +6143,7 @@
         <v>39</v>
       </c>
       <c r="E209">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="I209" t="s">
         <v>43</v>
@@ -6152,7 +6163,7 @@
         <v>39</v>
       </c>
       <c r="E210">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="I210" t="s">
         <v>43</v>
@@ -6172,7 +6183,7 @@
         <v>39</v>
       </c>
       <c r="E211">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="I211" t="s">
         <v>43</v>
@@ -6192,7 +6203,7 @@
         <v>39</v>
       </c>
       <c r="E212">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="I212" t="s">
         <v>43</v>
@@ -6212,7 +6223,7 @@
         <v>39</v>
       </c>
       <c r="E213">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="I213" t="s">
         <v>43</v>
@@ -6232,7 +6243,7 @@
         <v>39</v>
       </c>
       <c r="E214">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I214" t="s">
         <v>43</v>
@@ -6252,7 +6263,7 @@
         <v>39</v>
       </c>
       <c r="E215">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I215" t="s">
         <v>43</v>
@@ -6272,7 +6283,7 @@
         <v>39</v>
       </c>
       <c r="E216">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I216" t="s">
         <v>43</v>
@@ -6292,7 +6303,7 @@
         <v>39</v>
       </c>
       <c r="E217">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="I217" t="s">
         <v>43</v>
@@ -6312,7 +6323,7 @@
         <v>39</v>
       </c>
       <c r="E218">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="I218" t="s">
         <v>43</v>
@@ -6332,7 +6343,7 @@
         <v>39</v>
       </c>
       <c r="E219">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I219" t="s">
         <v>43</v>
@@ -6352,7 +6363,7 @@
         <v>39</v>
       </c>
       <c r="E220">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="I220" t="s">
         <v>43</v>
@@ -6372,7 +6383,7 @@
         <v>39</v>
       </c>
       <c r="E221">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="I221" t="s">
         <v>43</v>
@@ -6392,7 +6403,7 @@
         <v>39</v>
       </c>
       <c r="E222">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="I222" t="s">
         <v>43</v>
@@ -6412,7 +6423,7 @@
         <v>39</v>
       </c>
       <c r="E223">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="I223" t="s">
         <v>43</v>
@@ -6432,7 +6443,7 @@
         <v>39</v>
       </c>
       <c r="E224">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="I224" t="s">
         <v>43</v>
@@ -6452,7 +6463,7 @@
         <v>39</v>
       </c>
       <c r="E225">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="I225" t="s">
         <v>43</v>
@@ -6472,22 +6483,10 @@
         <v>39</v>
       </c>
       <c r="E226">
-        <v>2018</v>
-      </c>
-      <c r="G226">
-        <v>5.5</v>
-      </c>
-      <c r="H226" t="s">
-        <v>60</v>
+        <v>2016</v>
       </c>
       <c r="I226" t="s">
         <v>43</v>
-      </c>
-      <c r="J226" t="s">
-        <v>58</v>
-      </c>
-      <c r="L226" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
@@ -6504,7 +6503,7 @@
         <v>39</v>
       </c>
       <c r="E227">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="I227" t="s">
         <v>43</v>
@@ -6518,28 +6517,28 @@
         <v>66</v>
       </c>
       <c r="C228" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D228" t="s">
         <v>39</v>
       </c>
       <c r="E228">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G228">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="H228" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I228" t="s">
         <v>43</v>
       </c>
       <c r="J228" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L228" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
@@ -6550,28 +6549,16 @@
         <v>66</v>
       </c>
       <c r="C229" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D229" t="s">
         <v>39</v>
       </c>
       <c r="E229">
-        <v>1991</v>
-      </c>
-      <c r="G229">
-        <v>0</v>
-      </c>
-      <c r="H229" t="s">
-        <v>55</v>
+        <v>2019</v>
       </c>
       <c r="I229" t="s">
         <v>43</v>
-      </c>
-      <c r="J229" t="s">
-        <v>54</v>
-      </c>
-      <c r="L229" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
@@ -6588,7 +6575,7 @@
         <v>39</v>
       </c>
       <c r="E230">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -6620,7 +6607,7 @@
         <v>39</v>
       </c>
       <c r="E231">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6652,7 +6639,7 @@
         <v>39</v>
       </c>
       <c r="E232">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -6684,10 +6671,10 @@
         <v>39</v>
       </c>
       <c r="E233">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G233">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H233" t="s">
         <v>55</v>
@@ -6716,7 +6703,7 @@
         <v>39</v>
       </c>
       <c r="E234">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -6748,10 +6735,10 @@
         <v>39</v>
       </c>
       <c r="E235">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G235">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H235" t="s">
         <v>55</v>
@@ -6780,7 +6767,7 @@
         <v>39</v>
       </c>
       <c r="E236">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -6812,7 +6799,7 @@
         <v>39</v>
       </c>
       <c r="E237">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -6844,7 +6831,7 @@
         <v>39</v>
       </c>
       <c r="E238">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -6876,7 +6863,7 @@
         <v>39</v>
       </c>
       <c r="E239">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -6908,7 +6895,7 @@
         <v>39</v>
       </c>
       <c r="E240">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -6940,7 +6927,7 @@
         <v>39</v>
       </c>
       <c r="E241">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -6972,7 +6959,7 @@
         <v>39</v>
       </c>
       <c r="E242">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -7004,7 +6991,7 @@
         <v>39</v>
       </c>
       <c r="E243">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -7036,7 +7023,7 @@
         <v>39</v>
       </c>
       <c r="E244">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -7068,7 +7055,7 @@
         <v>39</v>
       </c>
       <c r="E245">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -7100,7 +7087,7 @@
         <v>39</v>
       </c>
       <c r="E246">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -7132,7 +7119,7 @@
         <v>39</v>
       </c>
       <c r="E247">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -7164,7 +7151,7 @@
         <v>39</v>
       </c>
       <c r="E248">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -7196,7 +7183,7 @@
         <v>39</v>
       </c>
       <c r="E249">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -7228,7 +7215,7 @@
         <v>39</v>
       </c>
       <c r="E250">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -7260,7 +7247,7 @@
         <v>39</v>
       </c>
       <c r="E251">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -7292,7 +7279,7 @@
         <v>39</v>
       </c>
       <c r="E252">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -7324,7 +7311,7 @@
         <v>39</v>
       </c>
       <c r="E253">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7356,7 +7343,7 @@
         <v>39</v>
       </c>
       <c r="E254">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -7388,7 +7375,7 @@
         <v>39</v>
       </c>
       <c r="E255">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -7420,7 +7407,7 @@
         <v>39</v>
       </c>
       <c r="E256">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -7452,7 +7439,7 @@
         <v>39</v>
       </c>
       <c r="E257">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -7478,22 +7465,28 @@
         <v>66</v>
       </c>
       <c r="C258" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D258" t="s">
         <v>39</v>
       </c>
       <c r="E258">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G258">
-        <v>1.1000000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="H258" t="s">
+        <v>55</v>
       </c>
       <c r="I258" t="s">
         <v>43</v>
       </c>
       <c r="J258" t="s">
-        <v>62</v>
+        <v>54</v>
+      </c>
+      <c r="L258" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -7504,19 +7497,28 @@
         <v>66</v>
       </c>
       <c r="C259" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D259" t="s">
         <v>39</v>
       </c>
       <c r="E259">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G259">
-        <v>0.85</v>
+        <v>0</v>
+      </c>
+      <c r="H259" t="s">
+        <v>55</v>
       </c>
       <c r="I259" t="s">
         <v>43</v>
+      </c>
+      <c r="J259" t="s">
+        <v>54</v>
+      </c>
+      <c r="L259" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
@@ -7533,13 +7535,16 @@
         <v>39</v>
       </c>
       <c r="E260">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G260">
-        <v>0.85</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I260" t="s">
         <v>43</v>
+      </c>
+      <c r="J260" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -7556,7 +7561,7 @@
         <v>39</v>
       </c>
       <c r="E261">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G261">
         <v>0.85</v>
@@ -7579,7 +7584,7 @@
         <v>39</v>
       </c>
       <c r="E262">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G262">
         <v>0.85</v>
@@ -7602,7 +7607,7 @@
         <v>39</v>
       </c>
       <c r="E263">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G263">
         <v>0.85</v>
@@ -7625,7 +7630,7 @@
         <v>39</v>
       </c>
       <c r="E264">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G264">
         <v>0.85</v>
@@ -7648,7 +7653,7 @@
         <v>39</v>
       </c>
       <c r="E265">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G265">
         <v>0.85</v>
@@ -7671,7 +7676,7 @@
         <v>39</v>
       </c>
       <c r="E266">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G266">
         <v>0.85</v>
@@ -7694,7 +7699,7 @@
         <v>39</v>
       </c>
       <c r="E267">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G267">
         <v>0.85</v>
@@ -7717,7 +7722,7 @@
         <v>39</v>
       </c>
       <c r="E268">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G268">
         <v>0.85</v>
@@ -7740,7 +7745,7 @@
         <v>39</v>
       </c>
       <c r="E269">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G269">
         <v>0.85</v>
@@ -7763,7 +7768,7 @@
         <v>39</v>
       </c>
       <c r="E270">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G270">
         <v>0.85</v>
@@ -7786,7 +7791,7 @@
         <v>39</v>
       </c>
       <c r="E271">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G271">
         <v>0.85</v>
@@ -7809,7 +7814,7 @@
         <v>39</v>
       </c>
       <c r="E272">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G272">
         <v>0.85</v>
@@ -7818,7 +7823,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>16</v>
       </c>
@@ -7832,7 +7837,7 @@
         <v>39</v>
       </c>
       <c r="E273">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G273">
         <v>0.85</v>
@@ -7841,7 +7846,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>16</v>
       </c>
@@ -7855,7 +7860,7 @@
         <v>39</v>
       </c>
       <c r="E274">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G274">
         <v>0.85</v>
@@ -7864,7 +7869,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>16</v>
       </c>
@@ -7878,7 +7883,7 @@
         <v>39</v>
       </c>
       <c r="E275">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G275">
         <v>0.85</v>
@@ -7887,7 +7892,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>16</v>
       </c>
@@ -7901,7 +7906,7 @@
         <v>39</v>
       </c>
       <c r="E276">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G276">
         <v>0.85</v>
@@ -7910,7 +7915,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>16</v>
       </c>
@@ -7924,7 +7929,7 @@
         <v>39</v>
       </c>
       <c r="E277">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G277">
         <v>0.85</v>
@@ -7933,7 +7938,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>16</v>
       </c>
@@ -7947,7 +7952,7 @@
         <v>39</v>
       </c>
       <c r="E278">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G278">
         <v>0.85</v>
@@ -7956,7 +7961,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>16</v>
       </c>
@@ -7970,7 +7975,7 @@
         <v>39</v>
       </c>
       <c r="E279">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G279">
         <v>0.85</v>
@@ -7979,7 +7984,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>16</v>
       </c>
@@ -7993,7 +7998,7 @@
         <v>39</v>
       </c>
       <c r="E280">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G280">
         <v>0.85</v>
@@ -8002,7 +8007,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>16</v>
       </c>
@@ -8016,7 +8021,7 @@
         <v>39</v>
       </c>
       <c r="E281">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G281">
         <v>0.85</v>
@@ -8025,7 +8030,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>16</v>
       </c>
@@ -8039,7 +8044,7 @@
         <v>39</v>
       </c>
       <c r="E282">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G282">
         <v>0.85</v>
@@ -8048,7 +8053,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>16</v>
       </c>
@@ -8062,7 +8067,7 @@
         <v>39</v>
       </c>
       <c r="E283">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G283">
         <v>0.85</v>
@@ -8071,7 +8076,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>16</v>
       </c>
@@ -8085,7 +8090,7 @@
         <v>39</v>
       </c>
       <c r="E284">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G284">
         <v>0.85</v>
@@ -8094,7 +8099,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>16</v>
       </c>
@@ -8108,7 +8113,7 @@
         <v>39</v>
       </c>
       <c r="E285">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G285">
         <v>0.85</v>
@@ -8117,7 +8122,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>16</v>
       </c>
@@ -8131,7 +8136,7 @@
         <v>39</v>
       </c>
       <c r="E286">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G286">
         <v>0.85</v>
@@ -8140,7 +8145,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>16</v>
       </c>
@@ -8154,7 +8159,7 @@
         <v>39</v>
       </c>
       <c r="E287">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G287">
         <v>0.85</v>
@@ -8163,7 +8168,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>16</v>
       </c>
@@ -8171,25 +8176,22 @@
         <v>66</v>
       </c>
       <c r="C288" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D288" t="s">
         <v>39</v>
       </c>
       <c r="E288">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G288">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I288" t="s">
         <v>43</v>
       </c>
-      <c r="J288" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>16</v>
       </c>
@@ -8197,22 +8199,22 @@
         <v>66</v>
       </c>
       <c r="C289" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D289" t="s">
         <v>39</v>
       </c>
       <c r="E289">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G289">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="I289" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>16</v>
       </c>
@@ -8226,16 +8228,19 @@
         <v>39</v>
       </c>
       <c r="E290">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G290">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I290" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J290" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>16</v>
       </c>
@@ -8249,7 +8254,7 @@
         <v>39</v>
       </c>
       <c r="E291">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G291">
         <v>0.5</v>
@@ -8258,7 +8263,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>16</v>
       </c>
@@ -8272,7 +8277,7 @@
         <v>39</v>
       </c>
       <c r="E292">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G292">
         <v>0.5</v>
@@ -8281,7 +8286,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>16</v>
       </c>
@@ -8295,7 +8300,7 @@
         <v>39</v>
       </c>
       <c r="E293">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G293">
         <v>0.5</v>
@@ -8304,7 +8309,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>16</v>
       </c>
@@ -8318,7 +8323,7 @@
         <v>39</v>
       </c>
       <c r="E294">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G294">
         <v>0.5</v>
@@ -8327,7 +8332,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>16</v>
       </c>
@@ -8341,7 +8346,7 @@
         <v>39</v>
       </c>
       <c r="E295">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G295">
         <v>0.5</v>
@@ -8350,7 +8355,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>16</v>
       </c>
@@ -8364,7 +8369,7 @@
         <v>39</v>
       </c>
       <c r="E296">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G296">
         <v>0.5</v>
@@ -8373,7 +8378,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>16</v>
       </c>
@@ -8387,7 +8392,7 @@
         <v>39</v>
       </c>
       <c r="E297">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G297">
         <v>0.5</v>
@@ -8396,7 +8401,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>16</v>
       </c>
@@ -8410,7 +8415,7 @@
         <v>39</v>
       </c>
       <c r="E298">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G298">
         <v>0.5</v>
@@ -8419,7 +8424,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>16</v>
       </c>
@@ -8433,7 +8438,7 @@
         <v>39</v>
       </c>
       <c r="E299">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G299">
         <v>0.5</v>
@@ -8442,7 +8447,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>16</v>
       </c>
@@ -8456,7 +8461,7 @@
         <v>39</v>
       </c>
       <c r="E300">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G300">
         <v>0.5</v>
@@ -8465,7 +8470,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>16</v>
       </c>
@@ -8479,7 +8484,7 @@
         <v>39</v>
       </c>
       <c r="E301">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G301">
         <v>0.5</v>
@@ -8488,7 +8493,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>16</v>
       </c>
@@ -8502,7 +8507,7 @@
         <v>39</v>
       </c>
       <c r="E302">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G302">
         <v>0.5</v>
@@ -8511,7 +8516,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>16</v>
       </c>
@@ -8525,7 +8530,7 @@
         <v>39</v>
       </c>
       <c r="E303">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G303">
         <v>0.5</v>
@@ -8534,7 +8539,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>16</v>
       </c>
@@ -8548,7 +8553,7 @@
         <v>39</v>
       </c>
       <c r="E304">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G304">
         <v>0.5</v>
@@ -8571,7 +8576,7 @@
         <v>39</v>
       </c>
       <c r="E305">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G305">
         <v>0.5</v>
@@ -8594,7 +8599,7 @@
         <v>39</v>
       </c>
       <c r="E306">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G306">
         <v>0.5</v>
@@ -8617,7 +8622,7 @@
         <v>39</v>
       </c>
       <c r="E307">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G307">
         <v>0.5</v>
@@ -8640,7 +8645,7 @@
         <v>39</v>
       </c>
       <c r="E308">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G308">
         <v>0.5</v>
@@ -8663,7 +8668,7 @@
         <v>39</v>
       </c>
       <c r="E309">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G309">
         <v>0.5</v>
@@ -8686,7 +8691,7 @@
         <v>39</v>
       </c>
       <c r="E310">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G310">
         <v>0.5</v>
@@ -8709,7 +8714,7 @@
         <v>39</v>
       </c>
       <c r="E311">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G311">
         <v>0.5</v>
@@ -8732,7 +8737,7 @@
         <v>39</v>
       </c>
       <c r="E312">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G312">
         <v>0.5</v>
@@ -8755,7 +8760,7 @@
         <v>39</v>
       </c>
       <c r="E313">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G313">
         <v>0.5</v>
@@ -8778,7 +8783,7 @@
         <v>39</v>
       </c>
       <c r="E314">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G314">
         <v>0.5</v>
@@ -8801,7 +8806,7 @@
         <v>39</v>
       </c>
       <c r="E315">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G315">
         <v>0.5</v>
@@ -8824,7 +8829,7 @@
         <v>39</v>
       </c>
       <c r="E316">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G316">
         <v>0.5</v>
@@ -8847,7 +8852,7 @@
         <v>39</v>
       </c>
       <c r="E317">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G317">
         <v>0.5</v>
@@ -8856,11 +8861,57 @@
         <v>43</v>
       </c>
     </row>
-    <row r="430" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K430" s="2"/>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>16</v>
+      </c>
+      <c r="B318" t="s">
+        <v>66</v>
+      </c>
+      <c r="C318" t="s">
+        <v>29</v>
+      </c>
+      <c r="D318" t="s">
+        <v>39</v>
+      </c>
+      <c r="E318">
+        <v>2018</v>
+      </c>
+      <c r="G318">
+        <v>0.5</v>
+      </c>
+      <c r="I318" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>16</v>
+      </c>
+      <c r="B319" t="s">
+        <v>66</v>
+      </c>
+      <c r="C319" t="s">
+        <v>29</v>
+      </c>
+      <c r="D319" t="s">
+        <v>39</v>
+      </c>
+      <c r="E319">
+        <v>2019</v>
+      </c>
+      <c r="G319">
+        <v>0.5</v>
+      </c>
+      <c r="I319" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="432" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K432" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L850" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L852" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo_ivan/conversion/chp/CHE_convchp_coal.xlsx
+++ b/data/zenodo_ivan/conversion/chp/CHE_convchp_coal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/chp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F214FBDC-8DBF-AA48-9C2F-F9DA6CF66764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61997BF-8A38-8341-80DF-8105597E0C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1999" uniqueCount="74">
   <si>
     <t>Name:</t>
   </si>
@@ -242,9 +242,6 @@
     <t>capacity_to_activity</t>
   </si>
   <si>
-    <t>GW/TWh</t>
-  </si>
-  <si>
     <t>input</t>
   </si>
   <si>
@@ -252,6 +249,12 @@
   </si>
   <si>
     <t>configuration_fxe</t>
+  </si>
+  <si>
+    <t>PJ/GW</t>
+  </si>
+  <si>
+    <t>Maximum energy production per capacity unit, per year.</t>
   </si>
 </sst>
 </file>
@@ -677,7 +680,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7:F8"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -779,10 +782,10 @@
         <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
         <v>65</v>
@@ -800,10 +803,10 @@
         <v>66</v>
       </c>
       <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
         <v>71</v>
-      </c>
-      <c r="D8" t="s">
-        <v>72</v>
       </c>
       <c r="F8" t="s">
         <v>63</v>
@@ -898,10 +901,13 @@
         <v>38</v>
       </c>
       <c r="G12">
-        <v>1E-3</v>
+        <v>31.54</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="L12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
